--- a/DDF/Phase2.1/TY_01/Test_data1.xlsx
+++ b/DDF/Phase2.1/TY_01/Test_data1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Beerendra Kumar G K\Pictures\Beerendra\Bimbo\Bimbo Mobile\DDF\Phase2.1\TY_01\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Beerendra Kumar G K\Music\Bimbo Mobile-TY\DDF\Phase2.1\TY_01\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="237">
   <si>
     <t>PHASE2</t>
   </si>
@@ -731,6 +731,12 @@
   </si>
   <si>
     <t>TC320</t>
+  </si>
+  <si>
+    <t>Expected7</t>
+  </si>
+  <si>
+    <t>Failure</t>
   </si>
 </sst>
 </file>
@@ -1115,8 +1121,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F89"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1124,7 +1130,8 @@
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="31" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -1331,6 +1338,12 @@
       <c r="D18" t="s">
         <v>6</v>
       </c>
+      <c r="E18" t="s">
+        <v>20</v>
+      </c>
+      <c r="F18" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
@@ -1338,6 +1351,12 @@
       </c>
       <c r="D19" t="s">
         <v>6</v>
+      </c>
+      <c r="E19" t="s">
+        <v>20</v>
+      </c>
+      <c r="F19" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -1866,10 +1885,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J87"/>
+  <dimension ref="A1:K87"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView topLeftCell="A62" workbookViewId="0">
+      <selection activeCell="D68" sqref="D68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1882,7 +1901,7 @@
     <col min="8" max="10" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1913,8 +1932,11 @@
       <c r="J1" s="1" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K1" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>111</v>
       </c>
@@ -1931,7 +1953,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>115</v>
       </c>
@@ -1948,7 +1970,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>117</v>
       </c>
@@ -1965,7 +1987,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>119</v>
       </c>
@@ -1982,7 +2004,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>121</v>
       </c>
@@ -1990,7 +2012,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>122</v>
       </c>
@@ -1998,7 +2020,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>124</v>
       </c>
@@ -2012,7 +2034,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>125</v>
       </c>
@@ -2026,7 +2048,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>127</v>
       </c>
@@ -2037,7 +2059,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>128</v>
       </c>
@@ -2045,7 +2067,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>129</v>
       </c>
@@ -2053,7 +2075,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>132</v>
       </c>
@@ -2061,7 +2083,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>134</v>
       </c>
@@ -2069,7 +2091,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>135</v>
       </c>
@@ -2077,7 +2099,7 @@
         <v>7654321</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>136</v>
       </c>
@@ -2085,7 +2107,7 @@
         <v>1234567</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>137</v>
       </c>
@@ -2096,7 +2118,7 @@
         <v>7654321</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>138</v>
       </c>
@@ -2104,7 +2126,7 @@
         <v>7654321</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>139</v>
       </c>
@@ -2115,7 +2137,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>140</v>
       </c>
@@ -2123,7 +2145,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>95</v>
       </c>
@@ -2131,7 +2153,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>97</v>
       </c>
@@ -2142,7 +2164,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>99</v>
       </c>
@@ -2153,7 +2175,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>141</v>
       </c>
@@ -2164,7 +2186,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>142</v>
       </c>
@@ -2172,7 +2194,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>143</v>
       </c>
@@ -2180,7 +2202,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>144</v>
       </c>
@@ -2188,7 +2210,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>146</v>
       </c>
@@ -2196,7 +2218,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>161</v>
       </c>
@@ -2207,7 +2229,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>71</v>
       </c>
@@ -2226,8 +2248,20 @@
       <c r="G32" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H32">
+        <v>3</v>
+      </c>
+      <c r="I32">
+        <v>1</v>
+      </c>
+      <c r="J32">
+        <v>1</v>
+      </c>
+      <c r="K32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>72</v>
       </c>
@@ -2241,7 +2275,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>74</v>
       </c>
@@ -2260,8 +2294,20 @@
       <c r="G34" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H34">
+        <v>3</v>
+      </c>
+      <c r="I34">
+        <v>1</v>
+      </c>
+      <c r="J34">
+        <v>1</v>
+      </c>
+      <c r="K34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>73</v>
       </c>
@@ -2284,7 +2330,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>75</v>
       </c>
@@ -2298,7 +2344,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>76</v>
       </c>
@@ -2312,7 +2358,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>77</v>
       </c>
@@ -2326,7 +2372,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>78</v>
       </c>
@@ -2337,7 +2383,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>79</v>
       </c>
@@ -2348,7 +2394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>80</v>
       </c>
@@ -2359,7 +2405,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>162</v>
       </c>
@@ -2373,7 +2419,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>158</v>
       </c>
@@ -2387,7 +2433,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>159</v>
       </c>
@@ -2407,7 +2453,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>160</v>
       </c>
@@ -2418,7 +2464,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>163</v>
       </c>
@@ -2432,7 +2478,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>164</v>
       </c>
@@ -2452,7 +2498,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>81</v>
       </c>
@@ -2667,6 +2713,9 @@
       </c>
       <c r="B68">
         <v>1</v>
+      </c>
+      <c r="D68" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
@@ -2860,8 +2909,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3081,7 +3130,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>217</v>
       </c>
@@ -3095,7 +3144,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>218</v>
       </c>
@@ -3106,7 +3155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>219</v>
       </c>
@@ -3117,7 +3166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>220</v>
       </c>
@@ -3127,8 +3176,14 @@
       <c r="F20" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G20" t="s">
+        <v>236</v>
+      </c>
+      <c r="H20" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>221</v>
       </c>
@@ -3139,7 +3194,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>222</v>
       </c>
@@ -3153,7 +3208,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>224</v>
       </c>
@@ -3167,7 +3222,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>225</v>
       </c>
@@ -3181,7 +3236,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>226</v>
       </c>
@@ -3195,7 +3250,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>227</v>
       </c>
@@ -3209,7 +3264,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>228</v>
       </c>
@@ -3223,7 +3278,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>229</v>
       </c>
@@ -3237,7 +3292,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>230</v>
       </c>
@@ -3251,7 +3306,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>231</v>
       </c>
@@ -3265,7 +3320,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>232</v>
       </c>
